--- a/dependencies/brucella/melitensis-bv3/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/melitensis-bv3/script_dependents/Filtered_Regions.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/melitensis-bv3/script_dependents/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/melitensis-bv3/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA91D3D-388D-054A-B717-7D72FE9AB163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="4800" windowWidth="25880" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="23300" yWindow="4800" windowWidth="25880" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NZ_CP007760" sheetId="1" r:id="rId1"/>
-    <sheet name="NZ_CP007761" sheetId="2" r:id="rId2"/>
+    <sheet name="NZ_CP007760.1" sheetId="1" r:id="rId1"/>
+    <sheet name="NZ_CP007761.1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1055,8 +1056,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -1396,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1421,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
